--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06687900000000001</v>
+        <v>1.188679333333333</v>
       </c>
       <c r="H2">
-        <v>0.200637</v>
+        <v>3.566038</v>
       </c>
       <c r="I2">
-        <v>0.0002451038787796015</v>
+        <v>0.003493352068054632</v>
       </c>
       <c r="J2">
-        <v>0.0002451038787796015</v>
+        <v>0.003493352068054632</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N2">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O2">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P2">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q2">
-        <v>0.016917600375</v>
+        <v>2.880215590707778</v>
       </c>
       <c r="R2">
-        <v>0.152258403375</v>
+        <v>25.92194031637</v>
       </c>
       <c r="S2">
-        <v>4.891917695401826E-08</v>
+        <v>7.800034492666468E-06</v>
       </c>
       <c r="T2">
-        <v>4.891917695401826E-08</v>
+        <v>7.800034492666466E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06687900000000001</v>
+        <v>1.188679333333333</v>
       </c>
       <c r="H3">
-        <v>0.200637</v>
+        <v>3.566038</v>
       </c>
       <c r="I3">
-        <v>0.0002451038787796015</v>
+        <v>0.003493352068054632</v>
       </c>
       <c r="J3">
-        <v>0.0002451038787796015</v>
+        <v>0.003493352068054632</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.069411</v>
       </c>
       <c r="O3">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P3">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q3">
-        <v>0.001547379423</v>
+        <v>0.02750247373533334</v>
       </c>
       <c r="R3">
-        <v>0.013926414807</v>
+        <v>0.247522263618</v>
       </c>
       <c r="S3">
-        <v>4.474424630611579E-09</v>
+        <v>7.448062029153097E-08</v>
       </c>
       <c r="T3">
-        <v>4.474424630611579E-09</v>
+        <v>7.448062029153097E-08</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06687900000000001</v>
+        <v>1.188679333333333</v>
       </c>
       <c r="H4">
-        <v>0.200637</v>
+        <v>3.566038</v>
       </c>
       <c r="I4">
-        <v>0.0002451038787796015</v>
+        <v>0.003493352068054632</v>
       </c>
       <c r="J4">
-        <v>0.0002451038787796015</v>
+        <v>0.003493352068054632</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N4">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O4">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P4">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q4">
-        <v>20.569344542559</v>
+        <v>333.4971765525493</v>
       </c>
       <c r="R4">
-        <v>185.124100883031</v>
+        <v>3001.474588972944</v>
       </c>
       <c r="S4">
-        <v>5.947861299481803E-05</v>
+        <v>0.0009031579055085691</v>
       </c>
       <c r="T4">
-        <v>5.947861299481804E-05</v>
+        <v>0.0009031579055085692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06687900000000001</v>
+        <v>1.188679333333333</v>
       </c>
       <c r="H5">
-        <v>0.200637</v>
+        <v>3.566038</v>
       </c>
       <c r="I5">
-        <v>0.0002451038787796015</v>
+        <v>0.003493352068054632</v>
       </c>
       <c r="J5">
-        <v>0.0002451038787796015</v>
+        <v>0.003493352068054632</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N5">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O5">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P5">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q5">
-        <v>0.000481328163</v>
+        <v>0.03374422891466667</v>
       </c>
       <c r="R5">
-        <v>0.004331953467</v>
+        <v>0.303698060232</v>
       </c>
       <c r="S5">
-        <v>1.391815449994015E-09</v>
+        <v>9.138418329238799E-08</v>
       </c>
       <c r="T5">
-        <v>1.391815449994015E-09</v>
+        <v>9.138418329238799E-08</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06687900000000001</v>
+        <v>1.188679333333333</v>
       </c>
       <c r="H6">
-        <v>0.200637</v>
+        <v>3.566038</v>
       </c>
       <c r="I6">
-        <v>0.0002451038787796015</v>
+        <v>0.003493352068054632</v>
       </c>
       <c r="J6">
-        <v>0.0002451038787796015</v>
+        <v>0.003493352068054632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N6">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O6">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P6">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q6">
-        <v>38.04061110122701</v>
+        <v>812.8849592702999</v>
       </c>
       <c r="R6">
-        <v>342.365499911043</v>
+        <v>7315.9646334327</v>
       </c>
       <c r="S6">
-        <v>0.0001099987790614728</v>
+        <v>0.002201408374197435</v>
       </c>
       <c r="T6">
-        <v>0.0001099987790614728</v>
+        <v>0.002201408374197435</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.06687900000000001</v>
+        <v>1.188679333333333</v>
       </c>
       <c r="H7">
-        <v>0.200637</v>
+        <v>3.566038</v>
       </c>
       <c r="I7">
-        <v>0.0002451038787796015</v>
+        <v>0.003493352068054632</v>
       </c>
       <c r="J7">
-        <v>0.0002451038787796015</v>
+        <v>0.003493352068054632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N7">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O7">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P7">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q7">
-        <v>26.13477826007101</v>
+        <v>140.6203245295271</v>
       </c>
       <c r="R7">
-        <v>235.213004340639</v>
+        <v>1265.582920765744</v>
       </c>
       <c r="S7">
-        <v>7.557170130627599E-05</v>
+        <v>0.0003808198890523775</v>
       </c>
       <c r="T7">
-        <v>7.5571701306276E-05</v>
+        <v>0.0003808198890523775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.152298</v>
       </c>
       <c r="I8">
-        <v>0.0001860515783747551</v>
+        <v>0.0001491937363708924</v>
       </c>
       <c r="J8">
-        <v>0.0001860515783747551</v>
+        <v>0.0001491937363708924</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N8">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O8">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P8">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q8">
-        <v>0.01284168275</v>
+        <v>0.12300796403</v>
       </c>
       <c r="R8">
-        <v>0.11557514475</v>
+        <v>1.10707167627</v>
       </c>
       <c r="S8">
-        <v>3.71331948331717E-08</v>
+        <v>3.33123105576586E-07</v>
       </c>
       <c r="T8">
-        <v>3.713319483317171E-08</v>
+        <v>3.331231055765859E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.152298</v>
       </c>
       <c r="I9">
-        <v>0.0001860515783747551</v>
+        <v>0.0001491937363708924</v>
       </c>
       <c r="J9">
-        <v>0.0001860515783747551</v>
+        <v>0.0001491937363708924</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.069411</v>
       </c>
       <c r="O9">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P9">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q9">
         <v>0.001174572942</v>
@@ -1013,10 +1013,10 @@
         <v>0.010571156478</v>
       </c>
       <c r="S9">
-        <v>3.396412039618226E-09</v>
+        <v>3.180911002395258E-09</v>
       </c>
       <c r="T9">
-        <v>3.396412039618226E-09</v>
+        <v>3.180911002395258E-09</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.152298</v>
       </c>
       <c r="I10">
-        <v>0.0001860515783747551</v>
+        <v>0.0001491937363708924</v>
       </c>
       <c r="J10">
-        <v>0.0001860515783747551</v>
+        <v>0.0001491937363708924</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N10">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O10">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P10">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q10">
-        <v>15.613620793486</v>
+        <v>14.242964599536</v>
       </c>
       <c r="R10">
-        <v>140.522587141374</v>
+        <v>128.186681395824</v>
       </c>
       <c r="S10">
-        <v>4.51485708113897E-05</v>
+        <v>3.857197895623772E-05</v>
       </c>
       <c r="T10">
-        <v>4.514857081138971E-05</v>
+        <v>3.857197895623772E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>0.152298</v>
       </c>
       <c r="I11">
-        <v>0.0001860515783747551</v>
+        <v>0.0001491937363708924</v>
       </c>
       <c r="J11">
-        <v>0.0001860515783747551</v>
+        <v>0.0001491937363708924</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N11">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O11">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P11">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q11">
-        <v>0.000365362902</v>
+        <v>0.001441145208</v>
       </c>
       <c r="R11">
-        <v>0.003288266118</v>
+        <v>0.012970306872</v>
       </c>
       <c r="S11">
-        <v>1.056488630727076E-09</v>
+        <v>3.902826707697479E-09</v>
       </c>
       <c r="T11">
-        <v>1.056488630727077E-09</v>
+        <v>3.902826707697479E-09</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.152298</v>
       </c>
       <c r="I12">
-        <v>0.0001860515783747551</v>
+        <v>0.0001491937363708924</v>
       </c>
       <c r="J12">
-        <v>0.0001860515783747551</v>
+        <v>0.0001491937363708924</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N12">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O12">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P12">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q12">
-        <v>28.875576237158</v>
+        <v>34.71661085129999</v>
       </c>
       <c r="R12">
-        <v>259.880186134422</v>
+        <v>312.4494976616999</v>
       </c>
       <c r="S12">
-        <v>8.349703221990055E-05</v>
+        <v>9.401753222302201E-05</v>
       </c>
       <c r="T12">
-        <v>8.349703221990055E-05</v>
+        <v>9.401753222302201E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.152298</v>
       </c>
       <c r="I13">
-        <v>0.0001860515783747551</v>
+        <v>0.0001491937363708924</v>
       </c>
       <c r="J13">
-        <v>0.0001860515783747551</v>
+        <v>0.0001491937363708924</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N13">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O13">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P13">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q13">
-        <v>19.838187669534</v>
+        <v>6.005598982735999</v>
       </c>
       <c r="R13">
-        <v>178.543689025806</v>
+        <v>54.050390844624</v>
       </c>
       <c r="S13">
-        <v>5.736438924796133E-05</v>
+        <v>1.626401834834597E-05</v>
       </c>
       <c r="T13">
-        <v>5.736438924796135E-05</v>
+        <v>1.626401834834597E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>92.54253899999999</v>
+        <v>144.108167</v>
       </c>
       <c r="H14">
-        <v>277.627617</v>
+        <v>432.324501</v>
       </c>
       <c r="I14">
-        <v>0.3391578112862414</v>
+        <v>0.4235125059348882</v>
       </c>
       <c r="J14">
-        <v>0.3391578112862414</v>
+        <v>0.4235125059348882</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N14">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O14">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P14">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q14">
-        <v>23.409406427875</v>
+        <v>349.1796127874017</v>
       </c>
       <c r="R14">
-        <v>210.684657850875</v>
+        <v>3142.616515086615</v>
       </c>
       <c r="S14">
-        <v>6.769097685544244E-05</v>
+        <v>0.0009456281788990522</v>
       </c>
       <c r="T14">
-        <v>6.769097685544245E-05</v>
+        <v>0.000945628178899052</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>92.54253899999999</v>
+        <v>144.108167</v>
       </c>
       <c r="H15">
-        <v>277.627617</v>
+        <v>432.324501</v>
       </c>
       <c r="I15">
-        <v>0.3391578112862414</v>
+        <v>0.4235125059348882</v>
       </c>
       <c r="J15">
-        <v>0.3391578112862414</v>
+        <v>0.4235125059348882</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.069411</v>
       </c>
       <c r="O15">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P15">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q15">
-        <v>2.141156724843</v>
+        <v>3.334230659879001</v>
       </c>
       <c r="R15">
-        <v>19.270410523587</v>
+        <v>30.008075938911</v>
       </c>
       <c r="S15">
-        <v>6.191399630391191E-06</v>
+        <v>9.029572035325086E-06</v>
       </c>
       <c r="T15">
-        <v>6.191399630391191E-06</v>
+        <v>9.029572035325085E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>92.54253899999999</v>
+        <v>144.108167</v>
       </c>
       <c r="H16">
-        <v>277.627617</v>
+        <v>432.324501</v>
       </c>
       <c r="I16">
-        <v>0.3391578112862414</v>
+        <v>0.4235125059348882</v>
       </c>
       <c r="J16">
-        <v>0.3391578112862414</v>
+        <v>0.4235125059348882</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N16">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O16">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P16">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q16">
-        <v>28462.43767900542</v>
+        <v>40431.14527607103</v>
       </c>
       <c r="R16">
-        <v>256161.9391110488</v>
+        <v>363880.3074846393</v>
       </c>
       <c r="S16">
-        <v>0.08230239481360148</v>
+        <v>0.1094933062472125</v>
       </c>
       <c r="T16">
-        <v>0.08230239481360149</v>
+        <v>0.1094933062472125</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>92.54253899999999</v>
+        <v>144.108167</v>
       </c>
       <c r="H17">
-        <v>277.627617</v>
+        <v>432.324501</v>
       </c>
       <c r="I17">
-        <v>0.3391578112862414</v>
+        <v>0.4235125059348882</v>
       </c>
       <c r="J17">
-        <v>0.3391578112862414</v>
+        <v>0.4235125059348882</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N17">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O17">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P17">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q17">
-        <v>0.6660286531829999</v>
+        <v>4.090942644796001</v>
       </c>
       <c r="R17">
-        <v>5.994257878647</v>
+        <v>36.818483803164</v>
       </c>
       <c r="S17">
-        <v>1.925898048144764E-06</v>
+        <v>1.107885598559919E-05</v>
       </c>
       <c r="T17">
-        <v>1.925898048144764E-06</v>
+        <v>1.107885598559919E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>92.54253899999999</v>
+        <v>144.108167</v>
       </c>
       <c r="H18">
-        <v>277.627617</v>
+        <v>432.324501</v>
       </c>
       <c r="I18">
-        <v>0.3391578112862414</v>
+        <v>0.4235125059348882</v>
       </c>
       <c r="J18">
-        <v>0.3391578112862414</v>
+        <v>0.4235125059348882</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N18">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O18">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P18">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q18">
-        <v>52637.9691146568</v>
+        <v>98549.16980327683</v>
       </c>
       <c r="R18">
-        <v>473741.7220319112</v>
+        <v>886942.5282294916</v>
       </c>
       <c r="S18">
-        <v>0.1522087097780878</v>
+        <v>0.2668852033747614</v>
       </c>
       <c r="T18">
-        <v>0.1522087097780878</v>
+        <v>0.2668852033747614</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>92.54253899999999</v>
+        <v>144.108167</v>
       </c>
       <c r="H19">
-        <v>277.627617</v>
+        <v>432.324501</v>
       </c>
       <c r="I19">
-        <v>0.3391578112862414</v>
+        <v>0.4235125059348882</v>
       </c>
       <c r="J19">
-        <v>0.3391578112862414</v>
+        <v>0.4235125059348882</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N19">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O19">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P19">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q19">
-        <v>36163.50029738741</v>
+        <v>17047.9427400061</v>
       </c>
       <c r="R19">
-        <v>325471.5026764867</v>
+        <v>153431.4846600549</v>
       </c>
       <c r="S19">
-        <v>0.1045708984200182</v>
+        <v>0.04616825970599428</v>
       </c>
       <c r="T19">
-        <v>0.1045708984200182</v>
+        <v>0.04616825970599428</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.075973</v>
+        <v>0.2349906666666667</v>
       </c>
       <c r="H20">
-        <v>0.227919</v>
+        <v>0.7049719999999999</v>
       </c>
       <c r="I20">
-        <v>0.0002784323477103824</v>
+        <v>0.0006906026784124593</v>
       </c>
       <c r="J20">
-        <v>0.0002784323477103824</v>
+        <v>0.0006906026784124594</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N20">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O20">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P20">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q20">
-        <v>0.01921800345833333</v>
+        <v>0.5693913933088889</v>
       </c>
       <c r="R20">
-        <v>0.172962031125</v>
+        <v>5.12452253978</v>
       </c>
       <c r="S20">
-        <v>5.557105564867341E-08</v>
+        <v>1.541993079256044E-06</v>
       </c>
       <c r="T20">
-        <v>5.557105564867342E-08</v>
+        <v>1.541993079256044E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.075973</v>
+        <v>0.2349906666666667</v>
       </c>
       <c r="H21">
-        <v>0.227919</v>
+        <v>0.7049719999999999</v>
       </c>
       <c r="I21">
-        <v>0.0002784323477103824</v>
+        <v>0.0006906026784124593</v>
       </c>
       <c r="J21">
-        <v>0.0002784323477103824</v>
+        <v>0.0006906026784124594</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.069411</v>
       </c>
       <c r="O21">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P21">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q21">
-        <v>0.001757787301</v>
+        <v>0.005436979054666667</v>
       </c>
       <c r="R21">
-        <v>0.015820085709</v>
+        <v>0.048932811492</v>
       </c>
       <c r="S21">
-        <v>5.082843081706565E-09</v>
+        <v>1.472411450695735E-08</v>
       </c>
       <c r="T21">
-        <v>5.082843081706565E-09</v>
+        <v>1.472411450695735E-08</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.075973</v>
+        <v>0.2349906666666667</v>
       </c>
       <c r="H22">
-        <v>0.227919</v>
+        <v>0.7049719999999999</v>
       </c>
       <c r="I22">
-        <v>0.0002784323477103824</v>
+        <v>0.0006906026784124593</v>
       </c>
       <c r="J22">
-        <v>0.0002784323477103824</v>
+        <v>0.0006906026784124594</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N22">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O22">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P22">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q22">
-        <v>23.36630052679967</v>
+        <v>65.92923898977065</v>
       </c>
       <c r="R22">
-        <v>210.296704741197</v>
+        <v>593.363150907936</v>
       </c>
       <c r="S22">
-        <v>6.756633121092286E-05</v>
+        <v>0.0001785457796473809</v>
       </c>
       <c r="T22">
-        <v>6.756633121092287E-05</v>
+        <v>0.0001785457796473809</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.075973</v>
+        <v>0.2349906666666667</v>
       </c>
       <c r="H23">
-        <v>0.227919</v>
+        <v>0.7049719999999999</v>
       </c>
       <c r="I23">
-        <v>0.0002784323477103824</v>
+        <v>0.0006906026784124593</v>
       </c>
       <c r="J23">
-        <v>0.0002784323477103824</v>
+        <v>0.0006906026784124594</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N23">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O23">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P23">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q23">
-        <v>0.0005467776809999999</v>
+        <v>0.006670915045333333</v>
       </c>
       <c r="R23">
-        <v>0.004920999129</v>
+        <v>0.060038235408</v>
       </c>
       <c r="S23">
-        <v>1.581070219088134E-09</v>
+        <v>1.806578910937049E-08</v>
       </c>
       <c r="T23">
-        <v>1.581070219088134E-09</v>
+        <v>1.806578910937049E-08</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.075973</v>
+        <v>0.2349906666666667</v>
       </c>
       <c r="H24">
-        <v>0.227919</v>
+        <v>0.7049719999999999</v>
       </c>
       <c r="I24">
-        <v>0.0002784323477103824</v>
+        <v>0.0006906026784124593</v>
       </c>
       <c r="J24">
-        <v>0.0002784323477103824</v>
+        <v>0.0006906026784124594</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N24">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O24">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P24">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q24">
-        <v>43.21325598758234</v>
+        <v>160.6996715982</v>
       </c>
       <c r="R24">
-        <v>388.919303888241</v>
+        <v>1446.2970443838</v>
       </c>
       <c r="S24">
-        <v>0.0001249560735303649</v>
+        <v>0.0004351976239105455</v>
       </c>
       <c r="T24">
-        <v>0.0001249560735303649</v>
+        <v>0.0004351976239105456</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.075973</v>
+        <v>0.2349906666666667</v>
       </c>
       <c r="H25">
-        <v>0.227919</v>
+        <v>0.7049719999999999</v>
       </c>
       <c r="I25">
-        <v>0.0002784323477103824</v>
+        <v>0.0006906026784124593</v>
       </c>
       <c r="J25">
-        <v>0.0002784323477103824</v>
+        <v>0.0006906026784124594</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N25">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O25">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P25">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q25">
-        <v>29.688504743677</v>
+        <v>27.79930876345955</v>
       </c>
       <c r="R25">
-        <v>267.196542693093</v>
+        <v>250.193778871136</v>
       </c>
       <c r="S25">
-        <v>8.584770800014512E-05</v>
+        <v>7.528449187166053E-05</v>
       </c>
       <c r="T25">
-        <v>8.584770800014513E-05</v>
+        <v>7.528449187166054E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>59.65883133333333</v>
+        <v>39.30661766666667</v>
       </c>
       <c r="H26">
-        <v>178.976494</v>
+        <v>117.919853</v>
       </c>
       <c r="I26">
-        <v>0.2186427871717284</v>
+        <v>0.115516313158258</v>
       </c>
       <c r="J26">
-        <v>0.2186427871717284</v>
+        <v>0.115516313158258</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N26">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O26">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P26">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q26">
-        <v>15.09119854269444</v>
+        <v>95.24144136001055</v>
       </c>
       <c r="R26">
-        <v>135.82078688425</v>
+        <v>857.1729722400951</v>
       </c>
       <c r="S26">
-        <v>4.363792710514904E-05</v>
+        <v>0.000257927403120819</v>
       </c>
       <c r="T26">
-        <v>4.363792710514904E-05</v>
+        <v>0.000257927403120819</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>59.65883133333333</v>
+        <v>39.30661766666667</v>
       </c>
       <c r="H27">
-        <v>178.976494</v>
+        <v>117.919853</v>
       </c>
       <c r="I27">
-        <v>0.2186427871717284</v>
+        <v>0.115516313158258</v>
       </c>
       <c r="J27">
-        <v>0.2186427871717284</v>
+        <v>0.115516313158258</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.069411</v>
       </c>
       <c r="O27">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P27">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q27">
-        <v>1.380326380559333</v>
+        <v>0.9094372129536668</v>
       </c>
       <c r="R27">
-        <v>12.422937425034</v>
+        <v>8.184934916583</v>
       </c>
       <c r="S27">
-        <v>3.991371646576181E-06</v>
+        <v>2.462885643990936E-06</v>
       </c>
       <c r="T27">
-        <v>3.991371646576181E-06</v>
+        <v>2.462885643990936E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>59.65883133333333</v>
+        <v>39.30661766666667</v>
       </c>
       <c r="H28">
-        <v>178.976494</v>
+        <v>117.919853</v>
       </c>
       <c r="I28">
-        <v>0.2186427871717284</v>
+        <v>0.115516313158258</v>
       </c>
       <c r="J28">
-        <v>0.2186427871717284</v>
+        <v>0.115516313158258</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N28">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O28">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P28">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q28">
-        <v>18348.70522438655</v>
+        <v>11027.90773261296</v>
       </c>
       <c r="R28">
-        <v>165138.3470194789</v>
+        <v>99251.16959351666</v>
       </c>
       <c r="S28">
-        <v>0.05305738035255397</v>
+        <v>0.02986514654452879</v>
       </c>
       <c r="T28">
-        <v>0.05305738035255397</v>
+        <v>0.02986514654452879</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>59.65883133333333</v>
+        <v>39.30661766666667</v>
       </c>
       <c r="H29">
-        <v>178.976494</v>
+        <v>117.919853</v>
       </c>
       <c r="I29">
-        <v>0.2186427871717284</v>
+        <v>0.115516313158258</v>
       </c>
       <c r="J29">
-        <v>0.2186427871717284</v>
+        <v>0.115516313158258</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N29">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O29">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P29">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q29">
-        <v>0.4293646091059999</v>
+        <v>1.115836262321333</v>
       </c>
       <c r="R29">
-        <v>3.864281481954</v>
+        <v>10.042526360892</v>
       </c>
       <c r="S29">
-        <v>1.241556888983393E-06</v>
+        <v>3.021843698907148E-06</v>
       </c>
       <c r="T29">
-        <v>1.241556888983394E-06</v>
+        <v>3.021843698907148E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>59.65883133333333</v>
+        <v>39.30661766666667</v>
       </c>
       <c r="H30">
-        <v>178.976494</v>
+        <v>117.919853</v>
       </c>
       <c r="I30">
-        <v>0.2186427871717284</v>
+        <v>0.115516313158258</v>
       </c>
       <c r="J30">
-        <v>0.2186427871717284</v>
+        <v>0.115516313158258</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N30">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O30">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P30">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q30">
-        <v>33933.79687951419</v>
+        <v>26880.04864307805</v>
       </c>
       <c r="R30">
-        <v>305404.1719156277</v>
+        <v>241920.4377877024</v>
       </c>
       <c r="S30">
-        <v>0.09812345589648477</v>
+        <v>0.07279500439376431</v>
       </c>
       <c r="T30">
-        <v>0.09812345589648477</v>
+        <v>0.07279500439376432</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>59.65883133333333</v>
+        <v>39.30661766666667</v>
       </c>
       <c r="H31">
-        <v>178.976494</v>
+        <v>117.919853</v>
       </c>
       <c r="I31">
-        <v>0.2186427871717284</v>
+        <v>0.115516313158258</v>
       </c>
       <c r="J31">
-        <v>0.2186427871717284</v>
+        <v>0.115516313158258</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N31">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O31">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P31">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q31">
-        <v>23313.30205522874</v>
+        <v>4649.958300313719</v>
       </c>
       <c r="R31">
-        <v>209819.7184970586</v>
+        <v>41849.62470282346</v>
       </c>
       <c r="S31">
-        <v>0.06741308006704892</v>
+        <v>0.01259275008750121</v>
       </c>
       <c r="T31">
-        <v>0.06741308006704894</v>
+        <v>0.01259275008750121</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>120.4648306666667</v>
+        <v>155.379756</v>
       </c>
       <c r="H32">
-        <v>361.394492</v>
+        <v>466.139268</v>
       </c>
       <c r="I32">
-        <v>0.4414898137371654</v>
+        <v>0.4566380324240157</v>
       </c>
       <c r="J32">
-        <v>0.4414898137371654</v>
+        <v>0.4566380324240157</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N32">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O32">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P32">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q32">
-        <v>30.47258279072222</v>
+        <v>376.49110501198</v>
       </c>
       <c r="R32">
-        <v>274.2532451165</v>
+        <v>3388.41994510782</v>
       </c>
       <c r="S32">
-        <v>8.811495937616459E-05</v>
+        <v>0.001019591594028526</v>
       </c>
       <c r="T32">
-        <v>8.81149593761646E-05</v>
+        <v>0.001019591594028526</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>120.4648306666667</v>
+        <v>155.379756</v>
       </c>
       <c r="H33">
-        <v>361.394492</v>
+        <v>466.139268</v>
       </c>
       <c r="I33">
-        <v>0.4414898137371654</v>
+        <v>0.4566380324240157</v>
       </c>
       <c r="J33">
-        <v>0.4414898137371654</v>
+        <v>0.4566380324240157</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.069411</v>
       </c>
       <c r="O33">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P33">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q33">
-        <v>2.787194787134667</v>
+        <v>3.595021414572001</v>
       </c>
       <c r="R33">
-        <v>25.084753084212</v>
+        <v>32.355192731148</v>
       </c>
       <c r="S33">
-        <v>8.059492597936368E-06</v>
+        <v>9.7358305836562E-06</v>
       </c>
       <c r="T33">
-        <v>8.059492597936368E-06</v>
+        <v>9.735830583656199E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>120.4648306666667</v>
+        <v>155.379756</v>
       </c>
       <c r="H34">
-        <v>361.394492</v>
+        <v>466.139268</v>
       </c>
       <c r="I34">
-        <v>0.4414898137371654</v>
+        <v>0.4566380324240157</v>
       </c>
       <c r="J34">
-        <v>0.4414898137371654</v>
+        <v>0.4566380324240157</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N34">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O34">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P34">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q34">
-        <v>37050.23411300549</v>
+        <v>43593.51463957258</v>
       </c>
       <c r="R34">
-        <v>333452.1070170494</v>
+        <v>392341.6317561532</v>
       </c>
       <c r="S34">
-        <v>0.1071349906952699</v>
+        <v>0.1180574533872543</v>
       </c>
       <c r="T34">
-        <v>0.1071349906952699</v>
+        <v>0.1180574533872543</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>120.4648306666667</v>
+        <v>155.379756</v>
       </c>
       <c r="H35">
-        <v>361.394492</v>
+        <v>466.139268</v>
       </c>
       <c r="I35">
-        <v>0.4414898137371654</v>
+        <v>0.4566380324240157</v>
       </c>
       <c r="J35">
-        <v>0.4414898137371654</v>
+        <v>0.4566380324240157</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N35">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O35">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P35">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q35">
-        <v>0.8669853863079999</v>
+        <v>4.410920513328001</v>
       </c>
       <c r="R35">
-        <v>7.802868476772</v>
+        <v>39.69828461995201</v>
       </c>
       <c r="S35">
-        <v>2.50698743256896E-06</v>
+        <v>1.194540167734936E-05</v>
       </c>
       <c r="T35">
-        <v>2.506987432568961E-06</v>
+        <v>1.194540167734936E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>120.4648306666667</v>
+        <v>155.379756</v>
       </c>
       <c r="H36">
-        <v>361.394492</v>
+        <v>466.139268</v>
       </c>
       <c r="I36">
-        <v>0.4414898137371654</v>
+        <v>0.4566380324240157</v>
       </c>
       <c r="J36">
-        <v>0.4414898137371654</v>
+        <v>0.4566380324240157</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N36">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O36">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P36">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q36">
-        <v>68520.10010266049</v>
+        <v>106257.3084982458</v>
       </c>
       <c r="R36">
-        <v>616680.9009239444</v>
+        <v>956315.7764842121</v>
       </c>
       <c r="S36">
-        <v>0.1981337085360188</v>
+        <v>0.2877599420189753</v>
       </c>
       <c r="T36">
-        <v>0.1981337085360188</v>
+        <v>0.2877599420189753</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>120.4648306666667</v>
+        <v>155.379756</v>
       </c>
       <c r="H37">
-        <v>361.394492</v>
+        <v>466.139268</v>
       </c>
       <c r="I37">
-        <v>0.4414898137371654</v>
+        <v>0.4566380324240157</v>
       </c>
       <c r="J37">
-        <v>0.4414898137371654</v>
+        <v>0.4566380324240157</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N37">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O37">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P37">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q37">
-        <v>47074.89103620471</v>
+        <v>18381.36754070378</v>
       </c>
       <c r="R37">
-        <v>423674.0193258424</v>
+        <v>165432.307866334</v>
       </c>
       <c r="S37">
-        <v>0.13612243306647</v>
+        <v>0.04977936419149668</v>
       </c>
       <c r="T37">
-        <v>0.13612243306647</v>
+        <v>0.04977936419149667</v>
       </c>
     </row>
   </sheetData>
